--- a/GrupoSA-web/src/main/webapp/resources/Inscritos.xlsx
+++ b/GrupoSA-web/src/main/webapp/resources/Inscritos.xlsx
@@ -23,22 +23,22 @@
     <t>APELLIDOS</t>
   </si>
   <si>
-    <t>Juan Alberto</t>
+    <t>Eduardo</t>
   </si>
   <si>
-    <t>Totti</t>
+    <t>Educado</t>
   </si>
   <si>
-    <t>Fidel</t>
+    <t>Lola</t>
   </si>
   <si>
-    <t>Delgado</t>
+    <t>Sol</t>
   </si>
   <si>
-    <t>María Marta</t>
+    <t>Gustavo</t>
   </si>
   <si>
-    <t>Schwarzenegger</t>
+    <t>Rana</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>103.0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -113,7 +113,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>105.0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -124,7 +124,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>101.0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
